--- a/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ056.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/JcicZ056.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9045968E-E98A-4DF4-8114-A7C54C258704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19404" windowHeight="6816" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -367,21 +368,7 @@
     <t>CustId= , AND ClaimDate=</t>
   </si>
   <si>
-    <t>A:新增;C:異動;D:刪除</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>三位文數字</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>A:清算程序開始;
-B:清算程序終止(結);
-C:清算程序開始同時終止;
-D:清算撤消免責確定;
-E:清算調查程序;
-G:清算撤回;
-H:清算復權;</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -526,11 +513,27 @@
     <t>checkCaseStatus</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>A:清算程序開始
+B:清算程序終止(結)
+C:清算程序開始同時終止
+D:清算撤消免責確定
+E:清算調查程序
+G:清算撤回
+H:清算復權</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:新增
+C:異動
+D:刪除</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -784,9 +787,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般 2 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -877,6 +880,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -912,6 +932,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1087,11 +1124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1113,7 +1150,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -1138,10 +1175,10 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
@@ -1200,7 +1237,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="22"/>
       <c r="C8" s="13" t="s">
@@ -1213,7 +1250,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B9" s="22"/>
       <c r="C9" s="13" t="s">
@@ -1247,7 +1284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="48.6">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -1264,8 +1301,8 @@
         <v>1</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="15" t="s">
-        <v>74</v>
+      <c r="G11" s="13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1305,7 +1342,7 @@
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="113.4">
@@ -1326,7 +1363,7 @@
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="13" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1337,10 +1374,10 @@
         <v>32</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E15" s="14">
         <v>8</v>
@@ -1378,7 +1415,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E17" s="14">
         <v>4</v>
@@ -1448,7 +1485,7 @@
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4">
@@ -1469,7 +1506,7 @@
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.4">
@@ -1480,7 +1517,7 @@
         <v>31</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>20</v>
@@ -1490,7 +1527,7 @@
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32.4">
@@ -1511,7 +1548,7 @@
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1551,7 +1588,7 @@
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1616,10 +1653,10 @@
         <v>19</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>18</v>
@@ -2106,10 +2143,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -2135,7 +2172,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>70</v>
@@ -2146,7 +2183,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>72</v>
@@ -2157,55 +2194,55 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
